--- a/docs/System_Test_Report_Project 5_Group 1_Automated Gardening System_version2.0.xlsx
+++ b/docs/System_Test_Report_Project 5_Group 1_Automated Gardening System_version2.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC97D641-703E-49D8-8BE0-3C750B854D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC2745-D0D9-4F21-9608-A23C00F31DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="5565" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Test Report" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -431,10 +431,7 @@
     <t>Data from the previous day is logged and saved as a CSV file</t>
   </si>
   <si>
-    <t>Then Kah Nyee</t>
-  </si>
-  <si>
-    <t>Updates on System_Test_Report with TestCase_ID-21 and TestCase_ID-22 replaced with newly updated TestCase_ID-21 following to updates in SRS_Project 5_Group 1_Automated Gardening System_version2.0</t>
+    <t>Updates on System_Test_Report with TestCase_ID-21 and TestCase_ID-22 replaced with newly updated TestCase_ID-21 following to updates in SRS_Project 5_Group 1_Automated Gardening System_version2.0 with test results of TestCase_ID-1 to TestCase_ID-21 passing</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,27 +723,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,13 +1056,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,10 +1870,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2173,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2217,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -2302,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E30" s="30">
         <v>45148</v>
@@ -2335,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,7 +2930,7 @@
     </row>
     <row r="21" spans="2:11" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <f t="shared" ref="B21:B24" si="1">B20+1</f>
+        <f t="shared" ref="B21:B23" si="1">B20+1</f>
         <v>19</v>
       </c>
       <c r="C21" s="11"/>
@@ -3032,20 +3018,19 @@
         <v>126</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K24">
@@ -3135,14 +3120,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c47168d0-be34-42b2-a9a2-79b9ac9e352a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C3C8A1A3305B74F9D575418AD4E1EC5" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49516acab4b806714c766d82fec62f57">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7bcc944a-fec8-4ab8-beaa-a3ce9d28f6a6" xmlns:ns4="c47168d0-be34-42b2-a9a2-79b9ac9e352a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49af7598704e3c6ba2e3cb147a24bc2f" ns3:_="" ns4:_="">
     <xsd:import namespace="7bcc944a-fec8-4ab8-beaa-a3ce9d28f6a6"/>
@@ -3343,6 +3320,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c47168d0-be34-42b2-a9a2-79b9ac9e352a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859B513B-8BED-4B59-B224-E0A2C6173D25}">
   <ds:schemaRefs>
@@ -3352,23 +3337,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c47168d0-be34-42b2-a9a2-79b9ac9e352a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7bcc944a-fec8-4ab8-beaa-a3ce9d28f6a6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F382A9A1-A86D-4E56-AEDC-25958011A172}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3385,4 +3353,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c47168d0-be34-42b2-a9a2-79b9ac9e352a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7bcc944a-fec8-4ab8-beaa-a3ce9d28f6a6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>